--- a/src/main/java/com/projectname/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/projectname/qa/testdata/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nigorabowles/eclipse-workspace/ProjectSkeleton/src/main/java/com/projectname/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6DFB87-2E5A-F646-ABBD-972F74AE3779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA1042-E8E1-9A49-91DB-2BBFE8038C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{53EE145C-4D14-6B4A-996A-645144FC8C5D}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" activeTab="1" xr2:uid="{53EE145C-4D14-6B4A-996A-645144FC8C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="contactus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -48,13 +49,37 @@
   </si>
   <si>
     <t>validPassword@123</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>E-Mail Address</t>
+  </si>
+  <si>
+    <t>Enquiry</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Refund Inquiry for Product</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>Product Quality Concern - Order #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +92,42 @@
       <color rgb="FF2A00FF"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,15 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E2433D-96C3-5740-A55C-65C5814BA9AD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -444,4 +512,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005030D3-35DD-A845-828C-4F0C5F4616DC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E707BAA9-3BC1-9A45-AE78-AAF0292FB982}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/projectname/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/projectname/qa/testdata/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nigorabowles/eclipse-workspace/ProjectSkeleton/src/main/java/com/projectname/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA1042-E8E1-9A49-91DB-2BBFE8038C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE01B66E-9A64-E84A-ADE0-4F45B23EE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" activeTab="1" xr2:uid="{53EE145C-4D14-6B4A-996A-645144FC8C5D}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{53EE145C-4D14-6B4A-996A-645144FC8C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Product Quality Concern - Order #</t>
+  </si>
+  <si>
+    <t>qa.test3@gmail.com</t>
+  </si>
+  <si>
+    <t>validPassword@456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +131,20 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333399"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +186,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E2433D-96C3-5740-A55C-65C5814BA9AD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,6 +531,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -518,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005030D3-35DD-A845-828C-4F0C5F4616DC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/projectname/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/projectname/qa/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nigorabowles/eclipse-workspace/ProjectSkeleton/src/main/java/com/projectname/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE01B66E-9A64-E84A-ADE0-4F45B23EE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221282ED-4351-4342-8AE4-23B26B5048FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{53EE145C-4D14-6B4A-996A-645144FC8C5D}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
